--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/eq_coefficients_new_model.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/eq_coefficients_new_model.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gw" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shortage" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gcpi" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cf1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cf10" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +461,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2866309395887106</v>
+        <v>-0.296807206425396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193254848474799</v>
+        <v>0.193538411144755</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +474,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1574525531492667</v>
+        <v>0.1277636009509535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09657083959573255</v>
+        <v>0.0944116779346453</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +487,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2087534490969401</v>
+        <v>0.1885338849484266</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09445938680984731</v>
+        <v>0.09444561880670978</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +500,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.187805519424261</v>
+        <v>0.1719775529406523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09628051222084816</v>
+        <v>0.0968222846727964</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +513,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04068550487645064</v>
+        <v>-0.05638420233426183</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0961492468352237</v>
+        <v>0.09701639909253143</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +526,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3184213858257274</v>
+        <v>0.3247190936598406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1458024179763306</v>
+        <v>0.1456213113868926</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +539,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.002145143575243601</v>
+        <v>0.0163612386340814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1539725562833521</v>
+        <v>0.1534307966958079</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +552,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1559671987101475</v>
+        <v>0.1490394321225859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1609814873267672</v>
+        <v>0.160221416870338</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +565,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01443054224535155</v>
+        <v>0.07798939907772146</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1588708755129259</v>
+        <v>0.1562214967876875</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +578,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04361075548137213</v>
+        <v>0.00141953030792704</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06080094378529654</v>
+        <v>0.07183904377093787</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +591,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.536950195518507</v>
+        <v>5.293018586906533</v>
       </c>
       <c r="C12" t="n">
-        <v>1.521675307315725</v>
+        <v>1.558101383197249</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +604,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.604822937605796</v>
+        <v>-2.611812632657428</v>
       </c>
       <c r="C13" t="n">
-        <v>2.884385446800546</v>
+        <v>2.890366803235481</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +617,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.011404670196295</v>
+        <v>-5.305886744748224</v>
       </c>
       <c r="C14" t="n">
-        <v>2.95900090632542</v>
+        <v>2.904829624925817</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +630,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.759954892832561</v>
+        <v>3.473143733824428</v>
       </c>
       <c r="C15" t="n">
-        <v>1.580732517863577</v>
+        <v>1.533702348983419</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +643,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05695849120818183</v>
+        <v>0.06324283506605924</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07658154119061615</v>
+        <v>0.07602800741280741</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +656,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02149359368014187</v>
+        <v>-0.0210658615571267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0802683367348912</v>
+        <v>0.07990968780279581</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +669,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0119299061070768</v>
+        <v>-0.01163682748041379</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07748401894781536</v>
+        <v>0.0772858825360874</v>
       </c>
     </row>
     <row r="19">
@@ -678,62 +682,62 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04047820389285323</v>
+        <v>-0.0354153098815015</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06450618705528384</v>
+        <v>0.06417302860832913</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>L1_gcu</t>
+          <t>L1_cu</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004722969154497603</v>
+        <v>-0.9863090418917073</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01812289324770653</v>
+        <v>7.702096299105409</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>L2_gcu</t>
+          <t>L2_cu</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.03230986668026049</v>
+        <v>-11.69716466994599</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02082093386214197</v>
+        <v>13.37840499349902</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>L3_gcu</t>
+          <t>L3_cu</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008398035546515773</v>
+        <v>13.5711596068908</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01604221700271448</v>
+        <v>12.38060200853488</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>L4_gcu</t>
+          <t>L4_cu</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.008216672535863402</v>
+        <v>-3.935636997993863</v>
       </c>
       <c r="C23" t="n">
-        <v>0.009451281938781583</v>
+        <v>6.464118217051237</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +747,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.062623537506405</v>
+        <v>-1.019673248338789</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7559612043729578</v>
+        <v>0.7517885533698254</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +760,1086 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.664128122189588</v>
+        <v>3.937626126041346</v>
       </c>
       <c r="C25" t="n">
-        <v>1.172973639769873</v>
+        <v>1.165509053782208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>t_stat</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>const</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.488135217737887</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9089604137926484</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.837499592730997</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0002416112740595512</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L1_shortage</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01626671710464338</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08636750362082579</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1883430274430323</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8510674917635246</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L2_shortage</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04831425087495264</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.08207145908434449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5886851703867028</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5576711800466422</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L3_shortage</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2264082632083225</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.08167686370916766</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.771999963349593</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.006876211519503838</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L4_shortage</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2493126307528744</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.08497503813207322</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.933951384233309</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.004326220288994574</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>excess_demand</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.429439571968395</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6680747683784458</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.139640111596996</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03532040843279963</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L1_excess_demand</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.486169915823633</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9325401185135166</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.810699107481464</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.64309670212328e-06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L2_excess_demand</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.569671932608841</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.017732777794495</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.542322274428893</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1267995284570874</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L3_excess_demand</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3.261277112625633</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.021756714258973</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-3.191833307394381</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00199702246733925</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L4_excess_demand</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.727130888255826</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7387284479972759</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.691655432587161</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0003975290899077531</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>gscpi</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.811055438231396</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7047672675554904</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.407537514405533</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.026581276213761e-07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L1_gscpi</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.818388623910905</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.012926464231559</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.795183251817196</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.07626445923105027</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L2_gscpi</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2181458690523327</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9951445021026388</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2192102439308189</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8270244518634202</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>L3_gscpi</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.8066064328532172</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9624779595080712</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.8380518482371057</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4044084872493982</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>L4_gscpi</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.193946994500894</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.785230354690969</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.794017044035864</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.006463028888237738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>const</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1066588362342469</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1580048776318225</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>magpty</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1441310302701261</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06357949463548257</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L1_gcpi</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.04230052644833436</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1077454260836043</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L2_gcpi</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1759039851624483</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.102207730605524</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L3_gcpi</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2280865622914938</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1019737278549629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L4_gcpi</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1137035695375714</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09731760162507391</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>gw</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3685487891550105</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09354206897094307</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L1_gw</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1757972761198081</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1082706982209676</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L2_gw</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03816521305349985</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1073369809267438</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L3_gw</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03585166803229674</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1103332233696892</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L4_gw</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.04904954927467983</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1037433963052754</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>grpe</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.09219388304710284</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002680931462540892</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L1_grpe</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0005944059875525755</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.009930362206725133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>L2_grpe</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.01482607902192411</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.009479596497237459</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>L3_grpe</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.02128068801097605</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.009429193235158062</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>L4_grpe</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.009342218695601878</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.008964357977177279</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>grpf</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1110089853410608</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.03571281864225156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L1_grpf</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.01555724851713242</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.03930697970864193</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L2_grpf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.0009209730718229956</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03782650204728617</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>L3_grpf</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.00441841725240282</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03698085522277976</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>L4_grpf</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.03594308372044863</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.03535046763551423</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>shortage</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1073904122825948</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02055991727946756</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>L1_shortage</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.03302522550262989</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.02161439696437044</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>L2_shortage</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0007038632706801408</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02011368089680392</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L3_shortage</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.03281267110749934</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.02173686745994822</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L4_shortage</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.02349946684892144</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.02177109222214522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>L1_cf1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3321172745277992</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09027080143148422</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L2_cf1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2829751557670145</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.09251052614379821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L3_cf1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1464925036148989</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.09354256827023411</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L4_cf1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.09915286849793721</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.06683614711840459</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cf10</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.302543079679996</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1368314386815362</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L1_cf10</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.5470137364173623</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2179703799137955</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L2_cf10</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.02211476866060286</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2250209205675874</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L3_cf10</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1701349727833334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2250232262148402</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L4_cf10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3783620522522309</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1667671489115627</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>gcpi</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03576563846369017</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01104643004028215</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L1_gcpi</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.09802071256304459</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01192759589055101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>L2_gcpi</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.006735788123140452</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0149156300149576</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>L3_gcpi</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01603140216506165</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01505808750563575</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>L4_gcpi</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.02075806464289578</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01504644091506682</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>L1_cf10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8469272089816607</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09168074399063771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L2_cf10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.02175788943266666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1193152348313645</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L3_cf10</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1862128666358861</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1184542625039985</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L4_cf10</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.03610092614371243</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.08641081361952527</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gcpi</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.03037131918614487</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.006700283256264331</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L1_gcpi</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.01013770904050233</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.007369156635938378</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L2_gcpi</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.01074695755064875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.007380441907169672</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L3_gcpi</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.0006913246394112658</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.007376147090920204</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L4_gcpi</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.004352006077754718</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.006952537533796918</v>
       </c>
     </row>
   </sheetData>

--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/eq_coefficients_new_model.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/eq_coefficients_new_model.xlsx
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.296807206425396</v>
+        <v>-0.296807326029866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193538411144755</v>
+        <v>0.1935384111422632</v>
       </c>
     </row>
     <row r="3">
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1277636009509535</v>
+        <v>0.1277634532638591</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0944116779346453</v>
+        <v>0.09441167793342921</v>
       </c>
     </row>
     <row r="4">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1885338849484266</v>
+        <v>0.1885339843915124</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09444561880670978</v>
+        <v>0.09444561880549368</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1719775529406523</v>
+        <v>0.1719776210619828</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0968222846727964</v>
+        <v>0.09682228467154966</v>
       </c>
     </row>
     <row r="6">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.05638420233426183</v>
+        <v>-0.05638414041312542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09701639909253143</v>
+        <v>0.09701639909128226</v>
       </c>
     </row>
     <row r="7">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3247190936598406</v>
+        <v>0.3247191272496828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1456213113868926</v>
+        <v>0.1456213113850175</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0163612386340814</v>
+        <v>0.01636133244688159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1534307966958079</v>
+        <v>0.1534307966938317</v>
       </c>
     </row>
     <row r="9">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1490394321225859</v>
+        <v>0.1490392766318243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.160221416870338</v>
+        <v>0.1602214168682747</v>
       </c>
     </row>
     <row r="10">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07798939907772146</v>
+        <v>0.07798934536738229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1562214967876875</v>
+        <v>0.156221496785676</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00141953030792704</v>
+        <v>0.001419503053654736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07183904377093787</v>
+        <v>0.07183904377001281</v>
       </c>
     </row>
     <row r="12">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.293018586906533</v>
+        <v>5.293012759631353</v>
       </c>
       <c r="C12" t="n">
-        <v>1.558101383197249</v>
+        <v>1.558101383177155</v>
       </c>
     </row>
     <row r="13">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.611812632657428</v>
+        <v>-2.611796149284569</v>
       </c>
       <c r="C13" t="n">
-        <v>2.890366803235481</v>
+        <v>2.890366803198106</v>
       </c>
     </row>
     <row r="14">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.305886744748224</v>
+        <v>-5.305906773247235</v>
       </c>
       <c r="C14" t="n">
-        <v>2.904829624925817</v>
+        <v>2.904829624888207</v>
       </c>
     </row>
     <row r="15">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.473143733824428</v>
+        <v>3.473153378912535</v>
       </c>
       <c r="C15" t="n">
-        <v>1.533702348983419</v>
+        <v>1.533702348963601</v>
       </c>
     </row>
     <row r="16">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06324283506605924</v>
+        <v>0.06324286507482998</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07602800741280741</v>
+        <v>0.07602800741182845</v>
       </c>
     </row>
     <row r="17">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0210658615571267</v>
+        <v>-0.02106592932414735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07990968780279581</v>
+        <v>0.07990968780176687</v>
       </c>
     </row>
     <row r="18">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01163682748041379</v>
+        <v>-0.01163673328060042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0772858825360874</v>
+        <v>0.07728588253509221</v>
       </c>
     </row>
     <row r="19">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0354153098815015</v>
+        <v>-0.03541538981831874</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06417302860832913</v>
+        <v>0.06417302860750282</v>
       </c>
     </row>
     <row r="20">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.9863090418917073</v>
+        <v>-0.9862717720405476</v>
       </c>
       <c r="C20" t="n">
-        <v>7.702096299105409</v>
+        <v>7.702096299005937</v>
       </c>
     </row>
     <row r="21">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-11.69716466994599</v>
+        <v>-11.69724814129959</v>
       </c>
       <c r="C21" t="n">
-        <v>13.37840499349902</v>
+        <v>13.37840499332581</v>
       </c>
     </row>
     <row r="22">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.5711596068908</v>
+        <v>13.57124516197321</v>
       </c>
       <c r="C22" t="n">
-        <v>12.38060200853488</v>
+        <v>12.38060200837464</v>
       </c>
     </row>
     <row r="23">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-3.935636997993863</v>
+        <v>-3.935673551438488</v>
       </c>
       <c r="C23" t="n">
-        <v>6.464118217051237</v>
+        <v>6.464118216967838</v>
       </c>
     </row>
     <row r="24">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.019673248338789</v>
+        <v>-1.01967355476831</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7517885533698254</v>
+        <v>0.7517885533601455</v>
       </c>
     </row>
     <row r="25">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.937626126041346</v>
+        <v>3.937626034158694</v>
       </c>
       <c r="C25" t="n">
-        <v>1.165509053782208</v>
+        <v>1.1655090537672</v>
       </c>
     </row>
   </sheetData>
@@ -819,16 +819,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.488135217737887</v>
+        <v>3.042377674289254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9089604137926484</v>
+        <v>0.9282264015394623</v>
       </c>
       <c r="D2" t="n">
-        <v>3.837499592730997</v>
+        <v>3.277624585169604</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002416112740595512</v>
+        <v>0.001529904183642678</v>
       </c>
     </row>
     <row r="3">
@@ -838,16 +838,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01626671710464338</v>
+        <v>0.03023121447526651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08636750362082579</v>
+        <v>0.08811083674314929</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1883430274430323</v>
+        <v>0.3431043852573222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8510674917635246</v>
+        <v>0.7323874358597391</v>
       </c>
     </row>
     <row r="4">
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04831425087495264</v>
+        <v>0.05788194520313884</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08207145908434449</v>
+        <v>0.08423686466846003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5886851703867028</v>
+        <v>0.6871331860575647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5576711800466422</v>
+        <v>0.4939143088192079</v>
       </c>
     </row>
     <row r="5">
@@ -876,16 +876,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2264082632083225</v>
+        <v>0.2476551681717054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08167686370916766</v>
+        <v>0.08264258064817082</v>
       </c>
       <c r="D5" t="n">
-        <v>2.771999963349593</v>
+        <v>2.996701775638307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006876211519503838</v>
+        <v>0.00359849702274033</v>
       </c>
     </row>
     <row r="6">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2493126307528744</v>
+        <v>0.257664536745656</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08497503813207322</v>
+        <v>0.08672326249814834</v>
       </c>
       <c r="D6" t="n">
-        <v>2.933951384233309</v>
+        <v>2.971112125205823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004326220288994574</v>
+        <v>0.003880380508392733</v>
       </c>
     </row>
     <row r="7">
@@ -914,16 +914,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.429439571968395</v>
+        <v>-1.652586040996542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6680747683784458</v>
+        <v>0.7059806442107848</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.139640111596996</v>
+        <v>-2.340837605886442</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03532040843279963</v>
+        <v>0.02163957395632586</v>
       </c>
     </row>
     <row r="8">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.486169915823633</v>
+        <v>4.649509521087356</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9325401185135166</v>
+        <v>0.9777229659947535</v>
       </c>
       <c r="D8" t="n">
-        <v>4.810699107481464</v>
+        <v>4.755446770504014</v>
       </c>
       <c r="E8" t="n">
-        <v>6.64309670212328e-06</v>
+        <v>8.239817215566172e-06</v>
       </c>
     </row>
     <row r="9">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.569671932608841</v>
+        <v>-1.583280842986272</v>
       </c>
       <c r="C9" t="n">
-        <v>1.017732777794495</v>
+        <v>1.068481455294628</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.542322274428893</v>
+        <v>-1.481804700625048</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1267995284570874</v>
+        <v>0.142178998141526</v>
       </c>
     </row>
     <row r="10">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.261277112625633</v>
+        <v>-3.302471438892061</v>
       </c>
       <c r="C10" t="n">
-        <v>1.021756714258973</v>
+        <v>1.072200740049378</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.191833307394381</v>
+        <v>-3.080086886285839</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00199702246733925</v>
+        <v>0.002806223942581848</v>
       </c>
     </row>
     <row r="11">
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.727130888255826</v>
+        <v>2.532988127822146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7387284479972759</v>
+        <v>0.7823151713858066</v>
       </c>
       <c r="D11" t="n">
-        <v>3.691655432587161</v>
+        <v>3.23781031030648</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0003975290899077531</v>
+        <v>0.001732257796798422</v>
       </c>
     </row>
     <row r="12">
@@ -1009,16 +1009,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.811055438231396</v>
+        <v>4.030439022059688</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7047672675554904</v>
+        <v>0.7190811354684978</v>
       </c>
       <c r="D12" t="n">
-        <v>5.407537514405533</v>
+        <v>5.604985061155532</v>
       </c>
       <c r="E12" t="n">
-        <v>6.026581276213761e-07</v>
+        <v>2.652903284272096e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.818388623910905</v>
+        <v>-1.882362477267213</v>
       </c>
       <c r="C13" t="n">
-        <v>1.012926464231559</v>
+        <v>1.034466677036621</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.795183251817196</v>
+        <v>-1.819645348711969</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07626445923105027</v>
+        <v>0.07241849061627494</v>
       </c>
     </row>
     <row r="14">
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2181458690523327</v>
+        <v>0.0696325212998208</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9951445021026388</v>
+        <v>1.014433579134346</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2192102439308189</v>
+        <v>0.06864177481116195</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8270244518634202</v>
+        <v>0.9454398639911386</v>
       </c>
     </row>
     <row r="15">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.8066064328532172</v>
+        <v>-0.9068918658411471</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9624779595080712</v>
+        <v>0.9822652333657452</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.8380518482371057</v>
+        <v>-0.9232657687920703</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4044084872493982</v>
+        <v>0.3585449778806827</v>
       </c>
     </row>
     <row r="16">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.193946994500894</v>
+        <v>2.140793443319634</v>
       </c>
       <c r="C16" t="n">
-        <v>0.785230354690969</v>
+        <v>0.8037532099556847</v>
       </c>
       <c r="D16" t="n">
-        <v>2.794017044035864</v>
+        <v>2.663495979615021</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006463028888237738</v>
+        <v>0.009287613265408326</v>
       </c>
     </row>
   </sheetData>

--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/eq_coefficients_new_model.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/eq_coefficients_new_model.xlsx
@@ -819,16 +819,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.042377674289254</v>
+        <v>4.162295600260551</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9282264015394623</v>
+        <v>1.107274434386906</v>
       </c>
       <c r="D2" t="n">
-        <v>3.277624585169604</v>
+        <v>3.759046060306811</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001529904183642678</v>
+        <v>0.0003162805065090288</v>
       </c>
     </row>
     <row r="3">
@@ -838,16 +838,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03023121447526651</v>
+        <v>0.03023121447526297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08811083674314929</v>
+        <v>0.08811083674314943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3431043852573222</v>
+        <v>0.3431043852572815</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7323874358597391</v>
+        <v>0.7323874358597695</v>
       </c>
     </row>
     <row r="4">
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05788194520313884</v>
+        <v>0.05788194520314387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08423686466846003</v>
+        <v>0.08423686466845988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6871331860575647</v>
+        <v>0.6871331860576255</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4939143088192079</v>
+        <v>0.49391430881917</v>
       </c>
     </row>
     <row r="5">
@@ -876,16 +876,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2476551681717054</v>
+        <v>0.2476551681717035</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08264258064817082</v>
+        <v>0.0826425806481708</v>
       </c>
       <c r="D5" t="n">
-        <v>2.996701775638307</v>
+        <v>2.996701775638284</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00359849702274033</v>
+        <v>0.003598497022740576</v>
       </c>
     </row>
     <row r="6">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.257664536745656</v>
+        <v>0.2576645367456548</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08672326249814834</v>
+        <v>0.08672326249814835</v>
       </c>
       <c r="D6" t="n">
-        <v>2.971112125205823</v>
+        <v>2.971112125205809</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003880380508392733</v>
+        <v>0.003880380508392888</v>
       </c>
     </row>
     <row r="7">
@@ -914,16 +914,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.652586040996542</v>
+        <v>-39.44707325299284</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7059806442107848</v>
+        <v>16.85169152862024</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.340837605886442</v>
+        <v>-2.340837605886478</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02163957395632586</v>
+        <v>0.02163957395632394</v>
       </c>
     </row>
     <row r="8">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.649509521087356</v>
+        <v>110.9833546447109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9777229659947535</v>
+        <v>23.33815517252609</v>
       </c>
       <c r="D8" t="n">
-        <v>4.755446770504014</v>
+        <v>4.75544677050402</v>
       </c>
       <c r="E8" t="n">
-        <v>8.239817215566172e-06</v>
+        <v>8.239817215566001e-06</v>
       </c>
     </row>
     <row r="9">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.583280842986272</v>
+        <v>-37.7927646996677</v>
       </c>
       <c r="C9" t="n">
-        <v>1.068481455294628</v>
+        <v>25.50455176969453</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.481804700625048</v>
+        <v>-1.481804700625027</v>
       </c>
       <c r="E9" t="n">
-        <v>0.142178998141526</v>
+        <v>0.1421789981415316</v>
       </c>
     </row>
     <row r="10">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.302471438892061</v>
+        <v>-78.82968240935431</v>
       </c>
       <c r="C10" t="n">
-        <v>1.072200740049378</v>
+        <v>25.59333074672177</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.080086886285839</v>
+        <v>-3.080086886285855</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002806223942581848</v>
+        <v>0.002806223942581709</v>
       </c>
     </row>
     <row r="11">
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.532988127822146</v>
+        <v>60.46218819983819</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7823151713858066</v>
+        <v>18.6737895074883</v>
       </c>
       <c r="D11" t="n">
-        <v>3.23781031030648</v>
+        <v>3.237810310306459</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001732257796798422</v>
+        <v>0.00173225779679854</v>
       </c>
     </row>
     <row r="12">
@@ -1009,16 +1009,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.030439022059688</v>
+        <v>4.030439022059699</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7190811354684978</v>
+        <v>0.7190811354684982</v>
       </c>
       <c r="D12" t="n">
-        <v>5.604985061155532</v>
+        <v>5.604985061155546</v>
       </c>
       <c r="E12" t="n">
-        <v>2.652903284272096e-07</v>
+        <v>2.652903284271935e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.882362477267213</v>
+        <v>-1.882362477267233</v>
       </c>
       <c r="C13" t="n">
-        <v>1.034466677036621</v>
+        <v>1.034466677036626</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.819645348711969</v>
+        <v>-1.819645348711979</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07241849061627494</v>
+        <v>0.07241849061627345</v>
       </c>
     </row>
     <row r="14">
@@ -1047,16 +1047,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0696325212998208</v>
+        <v>0.06963252129980541</v>
       </c>
       <c r="C14" t="n">
-        <v>1.014433579134346</v>
+        <v>1.014433579134348</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06864177481116195</v>
+        <v>0.06864177481114662</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9454398639911386</v>
+        <v>0.9454398639911507</v>
       </c>
     </row>
     <row r="15">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.9068918658411471</v>
+        <v>-0.9068918658410942</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9822652333657452</v>
+        <v>0.982265233365745</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.9232657687920703</v>
+        <v>-0.9232657687920166</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3585449778806827</v>
+        <v>0.3585449778807103</v>
       </c>
     </row>
     <row r="16">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.140793443319634</v>
+        <v>2.140793443319625</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8037532099556847</v>
+        <v>0.8037532099556828</v>
       </c>
       <c r="D16" t="n">
-        <v>2.663495979615021</v>
+        <v>2.663495979615016</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009287613265408326</v>
+        <v>0.009287613265408437</v>
       </c>
     </row>
   </sheetData>
